--- a/funcionalidades-extra.xlsx
+++ b/funcionalidades-extra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dei/Equipo 2/Mis Documentos/Ingeniería de Sistemas/Material de Clase/Tópicos Especiales de Ingeniería de Software/laravel/sisnotas/sisnotas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0E1A6C-D600-3D4B-BECF-7F4A1852FE4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374855D3-0D02-C848-B651-67366DE62E02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26440" windowHeight="21600" xr2:uid="{FB98430E-C27B-FA44-886F-BB9015BB9395}"/>
   </bookViews>
